--- a/output/volumes/Volume_dari_Gambar_AUTO.xlsx
+++ b/output/volumes/Volume_dari_Gambar_AUTO.xlsx
@@ -66,7 +66,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -95,6 +95,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C00000"/>
         <bgColor rgb="00C00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +179,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -538,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,10 +667,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>A. PEKERJAAN TANAH &amp; PONDASI</t>
-        </is>
+      <c r="A6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B6" s="12" t="n"/>
       <c r="C6" s="12" t="n"/>
@@ -672,134 +683,200 @@
       <c r="L6" s="13" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>K40</t>
+        </is>
+      </c>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>Balok 40/60</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="15" t="inlineStr"/>
+      <c r="I7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="L7" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>K50</t>
+        </is>
+      </c>
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>Balok 50/60</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="15" t="inlineStr"/>
+      <c r="I8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Galian Tanah Pondasi</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="5">
-        <f>F7*G7*H7*I7</f>
-        <v/>
-      </c>
-      <c r="L7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Urugan Pasir Bawah Pondasi</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="5">
-        <f>F8*G8*H8*I8</f>
-        <v/>
-      </c>
-      <c r="L8" s="5" t="n"/>
+      <c r="J8" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L8" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Urugan Tanah Kembali</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="5">
-        <f>F9*G9*H9*I9</f>
-        <v/>
-      </c>
-      <c r="L9" s="5" t="n"/>
+      <c r="A9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/50</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="15" t="inlineStr"/>
+      <c r="I9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="L9" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Pemadatan Tanah</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="5">
-        <f>F10*G10*H10*I10</f>
-        <v/>
-      </c>
-      <c r="L10" s="5" t="n"/>
+      <c r="A10" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/55</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H10" s="15" t="inlineStr"/>
+      <c r="I10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K10" s="15" t="n">
+        <v>0.04125</v>
+      </c>
+      <c r="L10" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>B. PONDASI &amp; SLOOF</t>
-        </is>
+      <c r="A11" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="B11" s="12" t="n"/>
       <c r="C11" s="12" t="n"/>
@@ -814,185 +891,248 @@
       <c r="L11" s="13" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Pondasi Footplate P1 (100x100x50)</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Grid A-D</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="5">
-        <f>F12*G12*H12*I12</f>
-        <v/>
-      </c>
-      <c r="L12" s="5" t="n"/>
+      <c r="A12" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>Balok 30/40</t>
+        </is>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="15" t="inlineStr"/>
+      <c r="I12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L12" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Pondasi Footplate P2 (120x120x60)</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Grid E-H</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="5">
-        <f>F13*G13*H13*I13</f>
-        <v/>
-      </c>
-      <c r="L13" s="5" t="n"/>
+      <c r="A13" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>Balok 30/55</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H13" s="15" t="inlineStr"/>
+      <c r="I13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K13" s="15" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="L13" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Pondasi Footplate P3 (150x150x70)</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Grid I-L</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="5">
-        <f>F14*G14*H14*I14</f>
-        <v/>
-      </c>
-      <c r="L14" s="5" t="n"/>
+      <c r="A14" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/60</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>D30</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="15" t="inlineStr"/>
+      <c r="I14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K14" s="15" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L14" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>Sloof S1 K-225 (20/30)</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>As A-L</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="5">
-        <f>F15*G15*H15*I15</f>
-        <v/>
-      </c>
-      <c r="L15" s="5" t="n"/>
+      <c r="A15" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>Balok 35/50</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="15" t="inlineStr"/>
+      <c r="I15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K15" s="15" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="L15" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>Sloof S2 K-225 (15/25)</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>As 1-10</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="4" t="n"/>
-      <c r="K16" s="5">
-        <f>F16*G16*H16*I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="5" t="n"/>
+      <c r="A16" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>K45</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>Balok 45/60</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="15" t="inlineStr"/>
+      <c r="I16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L16" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>C1. KOLOM BASEMENT</t>
-        </is>
+      <c r="A17" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="B17" s="12" t="n"/>
       <c r="C17" s="12" t="n"/>
@@ -1007,150 +1147,200 @@
       <c r="L17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>K1</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K1 K-300 (70x70)</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>As A1-A4</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="5">
-        <f>F18*G18*H18*I18</f>
-        <v/>
-      </c>
-      <c r="L18" s="5" t="n"/>
+      <c r="A18" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/55</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H18" s="15" t="inlineStr"/>
+      <c r="I18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>0.04125</v>
+      </c>
+      <c r="L18" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>K2</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K2 K-300 (65x65)</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>As B1-B6</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="5">
-        <f>F19*G19*H19*I19</f>
-        <v/>
-      </c>
-      <c r="L19" s="5" t="n"/>
+      <c r="A19" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>K40</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>Balok 40/60</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="15" t="inlineStr"/>
+      <c r="I19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K19" s="15" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L19" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>K3</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K3 K-300 (50x50)</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>As C1-C8</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="5">
-        <f>F20*G20*H20*I20</f>
-        <v/>
-      </c>
-      <c r="L20" s="5" t="n"/>
+      <c r="A20" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/40</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H20" s="15" t="inlineStr"/>
+      <c r="I20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L20" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>K4</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K4 Praktis (13/13)</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>Basement</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Partisi</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="5">
-        <f>F21*G21*H21*I21</f>
-        <v/>
-      </c>
-      <c r="L21" s="5" t="n"/>
+      <c r="A21" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="14" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>Balok 30/40</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H21" s="15" t="inlineStr"/>
+      <c r="I21" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K21" s="15" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L21" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>C2. KOLOM LANTAI 1</t>
-        </is>
+      <c r="A22" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="B22" s="12" t="n"/>
       <c r="C22" s="12" t="n"/>
@@ -1165,150 +1355,200 @@
       <c r="L22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>K1</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K1 K-300 (70x70)</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>As A1-A4</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="5">
-        <f>F23*G23*H23*I23</f>
-        <v/>
-      </c>
-      <c r="L23" s="5" t="n"/>
+      <c r="A23" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="14" t="inlineStr">
+        <is>
+          <t>K20</t>
+        </is>
+      </c>
+      <c r="C23" s="15" t="inlineStr">
+        <is>
+          <t>Balok 20/50</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E23" s="15" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="15" t="inlineStr"/>
+      <c r="I23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K23" s="15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>K2</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K2 K-300 (65x65)</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>As B1-B6</t>
-        </is>
-      </c>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
-      <c r="I24" s="4" t="n"/>
-      <c r="J24" s="4" t="n"/>
-      <c r="K24" s="5">
-        <f>F24*G24*H24*I24</f>
-        <v/>
-      </c>
-      <c r="L24" s="5" t="n"/>
+      <c r="A24" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="14" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>Balok 35/50</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E24" s="15" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="15" t="inlineStr"/>
+      <c r="I24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="L24" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>K3</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K3 K-300 (50x50)</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>As C1-C8</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
-      <c r="I25" s="4" t="n"/>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="5">
-        <f>F25*G25*H25*I25</f>
-        <v/>
-      </c>
-      <c r="L25" s="5" t="n"/>
+      <c r="A25" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="14" t="inlineStr">
+        <is>
+          <t>K45</t>
+        </is>
+      </c>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>Balok 45/60</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E25" s="15" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H25" s="15" t="inlineStr"/>
+      <c r="I25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K25" s="15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L25" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>K4</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K4 Praktis (13/13)</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Partisi</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
-      <c r="I26" s="4" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="5">
-        <f>F26*G26*H26*I26</f>
-        <v/>
-      </c>
-      <c r="L26" s="5" t="n"/>
+      <c r="A26" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/50</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="15" t="inlineStr"/>
+      <c r="I26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K26" s="15" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="L26" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>C3. KOLOM LANTAI 2</t>
-        </is>
+      <c r="A27" s="3" t="n">
+        <v>22</v>
       </c>
       <c r="B27" s="12" t="n"/>
       <c r="C27" s="12" t="n"/>
@@ -1323,115 +1563,152 @@
       <c r="L27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>K1</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K1 K-300 (70x70)</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>As A1-A4</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="n"/>
-      <c r="G28" s="5" t="n"/>
-      <c r="H28" s="5" t="n"/>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="5">
-        <f>F28*G28*H28*I28</f>
-        <v/>
-      </c>
-      <c r="L28" s="5" t="n"/>
+      <c r="A28" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>Balok 30/50</t>
+        </is>
+      </c>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="15" t="inlineStr"/>
+      <c r="I28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K28" s="15" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L28" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>K2</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K2 K-300 (65x65)</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>As B1-B6</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="n"/>
-      <c r="G29" s="5" t="n"/>
-      <c r="H29" s="5" t="n"/>
-      <c r="I29" s="4" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="5">
-        <f>F29*G29*H29*I29</f>
-        <v/>
-      </c>
-      <c r="L29" s="5" t="n"/>
+      <c r="A29" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C29" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/40</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="15" t="inlineStr"/>
+      <c r="I29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K29" s="15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L29" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>K3</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>Kolom K3 K-300 (50x50)</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>As C1-C8</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="n"/>
-      <c r="G30" s="5" t="n"/>
-      <c r="H30" s="5" t="n"/>
-      <c r="I30" s="4" t="n"/>
-      <c r="J30" s="4" t="n"/>
-      <c r="K30" s="5">
-        <f>F30*G30*H30*I30</f>
-        <v/>
-      </c>
-      <c r="L30" s="5" t="n"/>
+      <c r="A30" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
+          <t>Balok 30/40</t>
+        </is>
+      </c>
+      <c r="D30" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="15" t="inlineStr"/>
+      <c r="I30" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K30" s="15" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L30" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>D1. BALOK LANTAI 1</t>
-        </is>
+      <c r="A31" s="3" t="n">
+        <v>26</v>
       </c>
       <c r="B31" s="12" t="n"/>
       <c r="C31" s="12" t="n"/>
@@ -1446,150 +1723,200 @@
       <c r="L31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>Balok B1 Induk K-300 (20/35)</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>As A-D</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="n"/>
-      <c r="G32" s="5" t="n"/>
-      <c r="H32" s="5" t="n"/>
-      <c r="I32" s="4" t="n"/>
-      <c r="J32" s="4" t="n"/>
-      <c r="K32" s="5">
-        <f>F32*G32*H32*I32</f>
-        <v/>
-      </c>
-      <c r="L32" s="5" t="n"/>
+      <c r="A32" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C32" s="15" t="inlineStr">
+        <is>
+          <t>Balok 35/50</t>
+        </is>
+      </c>
+      <c r="D32" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E32" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F32" s="15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G32" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="15" t="inlineStr"/>
+      <c r="I32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K32" s="15" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="L32" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>Balok B2 Anak K-300 (15/20)</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>As E-H</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="5" t="n"/>
-      <c r="I33" s="4" t="n"/>
-      <c r="J33" s="4" t="n"/>
-      <c r="K33" s="5">
-        <f>F33*G33*H33*I33</f>
-        <v/>
-      </c>
-      <c r="L33" s="5" t="n"/>
+      <c r="A33" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="B33" s="14" t="inlineStr">
+        <is>
+          <t>K40</t>
+        </is>
+      </c>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>Balok 40/60</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G33" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="15" t="inlineStr"/>
+      <c r="I33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K33" s="15" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L33" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>Balok B3 Ring K-225 (13/15)</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>Keliling</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="n"/>
-      <c r="G34" s="5" t="n"/>
-      <c r="H34" s="5" t="n"/>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="5">
-        <f>F34*G34*H34*I34</f>
-        <v/>
-      </c>
-      <c r="L34" s="5" t="n"/>
+      <c r="A34" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14" t="inlineStr">
+        <is>
+          <t>K45</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>Balok 45/60</t>
+        </is>
+      </c>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F34" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G34" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H34" s="15" t="inlineStr"/>
+      <c r="I34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K34" s="15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L34" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>Balok B4 Latei K-225 (13/13)</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>Pintu/Jendela</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-      <c r="I35" s="4" t="n"/>
-      <c r="J35" s="4" t="n"/>
-      <c r="K35" s="5">
-        <f>F35*G35*H35*I35</f>
-        <v/>
-      </c>
-      <c r="L35" s="5" t="n"/>
+      <c r="A35" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/50</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F35" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="15" t="inlineStr"/>
+      <c r="I35" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K35" s="15" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="L35" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>D2. BALOK LANTAI 2</t>
-        </is>
+      <c r="A36" s="3" t="n">
+        <v>31</v>
       </c>
       <c r="B36" s="12" t="n"/>
       <c r="C36" s="12" t="n"/>
@@ -1604,115 +1931,152 @@
       <c r="L36" s="13" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>Balok B1 Induk K-300 (20/35)</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>As A-D</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="n"/>
-      <c r="G37" s="5" t="n"/>
-      <c r="H37" s="5" t="n"/>
-      <c r="I37" s="4" t="n"/>
-      <c r="J37" s="4" t="n"/>
-      <c r="K37" s="5">
-        <f>F37*G37*H37*I37</f>
-        <v/>
-      </c>
-      <c r="L37" s="5" t="n"/>
+      <c r="A37" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B37" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C37" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/40</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H37" s="15" t="inlineStr"/>
+      <c r="I37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K37" s="15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L37" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>Balok B2 Anak K-300 (15/20)</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>As E-H</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="n"/>
-      <c r="G38" s="5" t="n"/>
-      <c r="H38" s="5" t="n"/>
-      <c r="I38" s="4" t="n"/>
-      <c r="J38" s="4" t="n"/>
-      <c r="K38" s="5">
-        <f>F38*G38*H38*I38</f>
-        <v/>
-      </c>
-      <c r="L38" s="5" t="n"/>
+      <c r="A38" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B38" s="14" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C38" s="15" t="inlineStr">
+        <is>
+          <t>Balok 30/40</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E38" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F38" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H38" s="15" t="inlineStr"/>
+      <c r="I38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K38" s="15" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L38" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>Balok B3 Ring K-225 (13/15)</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>Keliling</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
-      <c r="I39" s="4" t="n"/>
-      <c r="J39" s="4" t="n"/>
-      <c r="K39" s="5">
-        <f>F39*G39*H39*I39</f>
-        <v/>
-      </c>
-      <c r="L39" s="5" t="n"/>
+      <c r="A39" s="14" t="n">
+        <v>34</v>
+      </c>
+      <c r="B39" s="14" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C39" s="15" t="inlineStr">
+        <is>
+          <t>Balok 25/55</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E39" s="15" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H39" s="15" t="inlineStr"/>
+      <c r="I39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K39" s="15" t="n">
+        <v>0.04125</v>
+      </c>
+      <c r="L39" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>E. PLAT LANTAI</t>
-        </is>
+      <c r="A40" s="3" t="n">
+        <v>35</v>
       </c>
       <c r="B40" s="12" t="n"/>
       <c r="C40" s="12" t="n"/>
@@ -1727,247 +2091,392 @@
       <c r="L40" s="13" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>PL1</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>Plat Lantai 1 K-300 t=12cm</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>Zona A</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="5" t="n"/>
-      <c r="I41" s="4" t="n"/>
-      <c r="J41" s="4" t="n"/>
-      <c r="K41" s="5">
-        <f>F41*G41*H41*I41</f>
-        <v/>
-      </c>
-      <c r="L41" s="5" t="n"/>
+      <c r="A41" s="14" t="n">
+        <v>36</v>
+      </c>
+      <c r="B41" s="14" t="inlineStr">
+        <is>
+          <t>B35</t>
+        </is>
+      </c>
+      <c r="C41" s="15" t="inlineStr">
+        <is>
+          <t>B35/50</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E41" s="15" t="inlineStr">
+        <is>
+          <t>B35</t>
+        </is>
+      </c>
+      <c r="F41" s="15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G41" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="15" t="inlineStr"/>
+      <c r="I41" s="14" t="n">
+        <v>387</v>
+      </c>
+      <c r="J41" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K41" s="15" t="n">
+        <v>20.31749999999993</v>
+      </c>
+      <c r="L41" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>PL1</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>Plat Lantai 1 K-300 t=12cm</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 1</t>
-        </is>
-      </c>
-      <c r="E42" s="5" t="inlineStr">
-        <is>
-          <t>Zona B</t>
-        </is>
-      </c>
-      <c r="F42" s="5" t="n"/>
-      <c r="G42" s="5" t="n"/>
-      <c r="H42" s="5" t="n"/>
-      <c r="I42" s="4" t="n"/>
-      <c r="J42" s="4" t="n"/>
-      <c r="K42" s="5">
-        <f>F42*G42*H42*I42</f>
-        <v/>
-      </c>
-      <c r="L42" s="5" t="n"/>
+      <c r="A42" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B42" s="14" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="C42" s="15" t="inlineStr">
+        <is>
+          <t>B45/60</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E42" s="15" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="F42" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G42" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H42" s="15" t="inlineStr"/>
+      <c r="I42" s="14" t="n">
+        <v>665</v>
+      </c>
+      <c r="J42" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K42" s="15" t="n">
+        <v>53.86500000000071</v>
+      </c>
+      <c r="L42" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>PL2</t>
-        </is>
-      </c>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>Plat Lantai 2 K-300 t=12cm</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E43" s="5" t="inlineStr">
-        <is>
-          <t>Zona A</t>
-        </is>
-      </c>
-      <c r="F43" s="5" t="n"/>
-      <c r="G43" s="5" t="n"/>
-      <c r="H43" s="5" t="n"/>
-      <c r="I43" s="4" t="n"/>
-      <c r="J43" s="4" t="n"/>
-      <c r="K43" s="5">
-        <f>F43*G43*H43*I43</f>
-        <v/>
-      </c>
-      <c r="L43" s="5" t="n"/>
+      <c r="A43" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" s="14" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C43" s="15" t="inlineStr">
+        <is>
+          <t>B30/55</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E43" s="15" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="F43" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H43" s="15" t="inlineStr"/>
+      <c r="I43" s="14" t="n">
+        <v>91</v>
+      </c>
+      <c r="J43" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K43" s="15" t="n">
+        <v>4.504500000000006</v>
+      </c>
+      <c r="L43" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>PL2</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>Plat Lantai 2 K-300 t=12cm</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>Lantai 2</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="inlineStr">
-        <is>
-          <t>Zona B</t>
-        </is>
-      </c>
-      <c r="F44" s="5" t="n"/>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="5" t="n"/>
-      <c r="I44" s="4" t="n"/>
-      <c r="J44" s="4" t="n"/>
-      <c r="K44" s="5">
-        <f>F44*G44*H44*I44</f>
-        <v/>
-      </c>
-      <c r="L44" s="5" t="n"/>
+      <c r="A44" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="B44" s="14" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="C44" s="15" t="inlineStr">
+        <is>
+          <t>B25/40</t>
+        </is>
+      </c>
+      <c r="D44" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E44" s="15" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="F44" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G44" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H44" s="15" t="inlineStr"/>
+      <c r="I44" s="14" t="n">
+        <v>183</v>
+      </c>
+      <c r="J44" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K44" s="15" t="n">
+        <v>5.490000000000001</v>
+      </c>
+      <c r="L44" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>PL3</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>Plat Atap K-300 t=10cm</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>Atap</t>
-        </is>
-      </c>
-      <c r="E45" s="5" t="inlineStr">
-        <is>
-          <t>Full</t>
-        </is>
-      </c>
-      <c r="F45" s="5" t="n"/>
-      <c r="G45" s="5" t="n"/>
-      <c r="H45" s="5" t="n"/>
-      <c r="I45" s="4" t="n"/>
-      <c r="J45" s="4" t="n"/>
-      <c r="K45" s="5">
-        <f>F45*G45*H45*I45</f>
-        <v/>
-      </c>
-      <c r="L45" s="5" t="n"/>
+      <c r="A45" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="B45" s="14" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="C45" s="15" t="inlineStr">
+        <is>
+          <t>B25/50</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E45" s="15" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="15" t="inlineStr"/>
+      <c r="I45" s="14" t="n">
+        <v>268</v>
+      </c>
+      <c r="J45" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K45" s="15" t="n">
+        <v>10.04999999999995</v>
+      </c>
+      <c r="L45" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>Plat Tangga K-300</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>Tangga</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr"/>
-      <c r="F46" s="5" t="n"/>
-      <c r="G46" s="5" t="n"/>
-      <c r="H46" s="5" t="n"/>
-      <c r="I46" s="4" t="n"/>
-      <c r="J46" s="4" t="n"/>
-      <c r="K46" s="5">
-        <f>F46*G46*H46*I46</f>
-        <v/>
-      </c>
-      <c r="L46" s="5" t="n"/>
+      <c r="A46" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="B46" s="14" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C46" s="15" t="inlineStr">
+        <is>
+          <t>B30/50</t>
+        </is>
+      </c>
+      <c r="D46" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E46" s="15" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="F46" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G46" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="15" t="inlineStr"/>
+      <c r="I46" s="14" t="n">
+        <v>222</v>
+      </c>
+      <c r="J46" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K46" s="15" t="n">
+        <v>9.989999999999988</v>
+      </c>
+      <c r="L46" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>Plat Bordes K-300</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>Tangga</t>
-        </is>
-      </c>
-      <c r="E47" s="5" t="inlineStr"/>
-      <c r="F47" s="5" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n"/>
-      <c r="I47" s="4" t="n"/>
-      <c r="J47" s="4" t="n"/>
-      <c r="K47" s="5">
-        <f>F47*G47*H47*I47</f>
-        <v/>
-      </c>
-      <c r="L47" s="5" t="n"/>
+      <c r="A47" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="B47" s="14" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C47" s="15" t="inlineStr">
+        <is>
+          <t>B30/40</t>
+        </is>
+      </c>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E47" s="15" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G47" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H47" s="15" t="inlineStr"/>
+      <c r="I47" s="14" t="n">
+        <v>71</v>
+      </c>
+      <c r="J47" s="14" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K47" s="15" t="n">
+        <v>2.556000000000001</v>
+      </c>
+      <c r="L47" s="15" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="B48" s="16" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="C48" s="16" t="inlineStr">
+        <is>
+          <t>B25/60</t>
+        </is>
+      </c>
+      <c r="D48" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E48" s="16" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="F48" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G48" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H48" s="16" t="inlineStr"/>
+      <c r="I48" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="J48" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K48" s="16" t="n">
+        <v>2.699999999999998</v>
+      </c>
+      <c r="L48" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>TOTAL VOLUME STRUKTUR</t>
-        </is>
+      <c r="A49" s="6" t="n">
+        <v>44</v>
       </c>
       <c r="B49" s="12" t="n"/>
       <c r="C49" s="12" t="n"/>
@@ -1981,6 +2490,2378 @@
       <c r="K49" s="7">
         <f>SUM(K6:K48)</f>
         <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="B50" s="16" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="C50" s="16" t="inlineStr">
+        <is>
+          <t>B25/55</t>
+        </is>
+      </c>
+      <c r="D50" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E50" s="16" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="F50" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G50" s="16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H50" s="16" t="inlineStr"/>
+      <c r="I50" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K50" s="16" t="n">
+        <v>0.37125</v>
+      </c>
+      <c r="L50" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" s="16" t="inlineStr">
+        <is>
+          <t>B40</t>
+        </is>
+      </c>
+      <c r="C51" s="16" t="inlineStr">
+        <is>
+          <t>B40/60</t>
+        </is>
+      </c>
+      <c r="D51" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E51" s="16" t="inlineStr">
+        <is>
+          <t>B40</t>
+        </is>
+      </c>
+      <c r="F51" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G51" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="16" t="inlineStr"/>
+      <c r="I51" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="J51" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K51" s="16" t="n">
+        <v>4.968000000000003</v>
+      </c>
+      <c r="L51" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="B52" s="16" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C52" s="16" t="inlineStr">
+        <is>
+          <t>Balok 35/50</t>
+        </is>
+      </c>
+      <c r="D52" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E52" s="16" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
+      <c r="F52" s="16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G52" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="16" t="inlineStr"/>
+      <c r="I52" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K52" s="16" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="L52" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="B53" s="16" t="inlineStr">
+        <is>
+          <t>K40</t>
+        </is>
+      </c>
+      <c r="C53" s="16" t="inlineStr">
+        <is>
+          <t>Balok 40/60</t>
+        </is>
+      </c>
+      <c r="D53" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E53" s="16" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
+      <c r="F53" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G53" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H53" s="16" t="inlineStr"/>
+      <c r="I53" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K53" s="16" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="L53" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="B54" s="16" t="inlineStr">
+        <is>
+          <t>K45</t>
+        </is>
+      </c>
+      <c r="C54" s="16" t="inlineStr">
+        <is>
+          <t>Balok 45/60</t>
+        </is>
+      </c>
+      <c r="D54" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E54" s="16" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
+      <c r="F54" s="16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G54" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H54" s="16" t="inlineStr"/>
+      <c r="I54" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K54" s="16" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L54" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" s="16" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C55" s="16" t="inlineStr">
+        <is>
+          <t>Balok 25/50</t>
+        </is>
+      </c>
+      <c r="D55" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E55" s="16" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
+      <c r="F55" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G55" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="16" t="inlineStr"/>
+      <c r="I55" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K55" s="16" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="L55" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" s="16" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C56" s="16" t="inlineStr">
+        <is>
+          <t>Balok 30/50</t>
+        </is>
+      </c>
+      <c r="D56" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E56" s="16" t="inlineStr">
+        <is>
+          <t>D60</t>
+        </is>
+      </c>
+      <c r="F56" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G56" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H56" s="16" t="inlineStr"/>
+      <c r="I56" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K56" s="16" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L56" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="n">
+        <v>52</v>
+      </c>
+      <c r="B57" s="16" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C57" s="16" t="inlineStr">
+        <is>
+          <t>Balok 25/40</t>
+        </is>
+      </c>
+      <c r="D57" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E57" s="16" t="inlineStr">
+        <is>
+          <t>D60</t>
+        </is>
+      </c>
+      <c r="F57" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G57" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H57" s="16" t="inlineStr"/>
+      <c r="I57" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K57" s="16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L57" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="B58" s="16" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C58" s="16" t="inlineStr">
+        <is>
+          <t>Balok 30/40</t>
+        </is>
+      </c>
+      <c r="D58" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E58" s="16" t="inlineStr">
+        <is>
+          <t>D60</t>
+        </is>
+      </c>
+      <c r="F58" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H58" s="16" t="inlineStr"/>
+      <c r="I58" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K58" s="16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L58" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="16" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" s="16" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C59" s="16" t="inlineStr">
+        <is>
+          <t>Balok 25/55</t>
+        </is>
+      </c>
+      <c r="D59" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E59" s="16" t="inlineStr">
+        <is>
+          <t>D60</t>
+        </is>
+      </c>
+      <c r="F59" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H59" s="16" t="inlineStr"/>
+      <c r="I59" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K59" s="16" t="n">
+        <v>0.04125</v>
+      </c>
+      <c r="L59" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" s="16" t="inlineStr">
+        <is>
+          <t>K20</t>
+        </is>
+      </c>
+      <c r="C60" s="16" t="inlineStr">
+        <is>
+          <t>Balok 20/50</t>
+        </is>
+      </c>
+      <c r="D60" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E60" s="16" t="inlineStr">
+        <is>
+          <t>D60</t>
+        </is>
+      </c>
+      <c r="F60" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G60" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="16" t="inlineStr"/>
+      <c r="I60" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K60" s="16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L60" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="B61" s="16" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C61" s="16" t="inlineStr">
+        <is>
+          <t>Balok 35/50</t>
+        </is>
+      </c>
+      <c r="D61" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E61" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F61" s="16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G61" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="16" t="inlineStr"/>
+      <c r="I61" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K61" s="16" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="L61" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="B62" s="16" t="inlineStr">
+        <is>
+          <t>K45</t>
+        </is>
+      </c>
+      <c r="C62" s="16" t="inlineStr">
+        <is>
+          <t>Balok 45/60</t>
+        </is>
+      </c>
+      <c r="D62" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E62" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F62" s="16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G62" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H62" s="16" t="inlineStr"/>
+      <c r="I62" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K62" s="16" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L62" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="16" t="n">
+        <v>58</v>
+      </c>
+      <c r="B63" s="16" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C63" s="16" t="inlineStr">
+        <is>
+          <t>Balok 25/50</t>
+        </is>
+      </c>
+      <c r="D63" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E63" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F63" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H63" s="16" t="inlineStr"/>
+      <c r="I63" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K63" s="16" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="L63" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="B64" s="16" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C64" s="16" t="inlineStr">
+        <is>
+          <t>Balok 25/55</t>
+        </is>
+      </c>
+      <c r="D64" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E64" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F64" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G64" s="16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H64" s="16" t="inlineStr"/>
+      <c r="I64" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K64" s="16" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="L64" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="B65" s="16" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C65" s="16" t="inlineStr">
+        <is>
+          <t>Balok 30/45</t>
+        </is>
+      </c>
+      <c r="D65" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E65" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F65" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G65" s="16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H65" s="16" t="inlineStr"/>
+      <c r="I65" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K65" s="16" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="L65" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="16" t="n">
+        <v>61</v>
+      </c>
+      <c r="B66" s="16" t="inlineStr">
+        <is>
+          <t>K25</t>
+        </is>
+      </c>
+      <c r="C66" s="16" t="inlineStr">
+        <is>
+          <t>Balok 25/40</t>
+        </is>
+      </c>
+      <c r="D66" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E66" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F66" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G66" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H66" s="16" t="inlineStr"/>
+      <c r="I66" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K66" s="16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L66" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="B67" s="16" t="inlineStr">
+        <is>
+          <t>K20</t>
+        </is>
+      </c>
+      <c r="C67" s="16" t="inlineStr">
+        <is>
+          <t>Balok 20/50</t>
+        </is>
+      </c>
+      <c r="D67" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E67" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F67" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G67" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="16" t="inlineStr"/>
+      <c r="I67" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K67" s="16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L67" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="B68" s="16" t="inlineStr">
+        <is>
+          <t>K30</t>
+        </is>
+      </c>
+      <c r="C68" s="16" t="inlineStr">
+        <is>
+          <t>Balok 30/40</t>
+        </is>
+      </c>
+      <c r="D68" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E68" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F68" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G68" s="16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H68" s="16" t="inlineStr"/>
+      <c r="I68" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K68" s="16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L68" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="16" t="n">
+        <v>64</v>
+      </c>
+      <c r="B69" s="16" t="inlineStr">
+        <is>
+          <t>B35</t>
+        </is>
+      </c>
+      <c r="C69" s="16" t="inlineStr">
+        <is>
+          <t>B35/55</t>
+        </is>
+      </c>
+      <c r="D69" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E69" s="16" t="inlineStr">
+        <is>
+          <t>B35</t>
+        </is>
+      </c>
+      <c r="F69" s="16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G69" s="16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H69" s="16" t="inlineStr"/>
+      <c r="I69" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="J69" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K69" s="16" t="n">
+        <v>5.313000000000008</v>
+      </c>
+      <c r="L69" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="B70" s="16" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="C70" s="16" t="inlineStr">
+        <is>
+          <t>B45/65</t>
+        </is>
+      </c>
+      <c r="D70" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E70" s="16" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="F70" s="16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G70" s="16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H70" s="16" t="inlineStr"/>
+      <c r="I70" s="16" t="n">
+        <v>127</v>
+      </c>
+      <c r="J70" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K70" s="16" t="n">
+        <v>11.14424999999999</v>
+      </c>
+      <c r="L70" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="16" t="n">
+        <v>66</v>
+      </c>
+      <c r="B71" s="16" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C71" s="16" t="inlineStr">
+        <is>
+          <t>B30/45</t>
+        </is>
+      </c>
+      <c r="D71" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E71" s="16" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="F71" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G71" s="16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H71" s="16" t="inlineStr"/>
+      <c r="I71" s="16" t="n">
+        <v>229</v>
+      </c>
+      <c r="J71" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K71" s="16" t="n">
+        <v>9.274499999999978</v>
+      </c>
+      <c r="L71" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="16" t="n">
+        <v>67</v>
+      </c>
+      <c r="B72" s="16" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C72" s="16" t="inlineStr">
+        <is>
+          <t>B30/60</t>
+        </is>
+      </c>
+      <c r="D72" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E72" s="16" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="F72" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G72" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H72" s="16" t="inlineStr"/>
+      <c r="I72" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J72" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K72" s="16" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="L72" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="B73" s="16" t="n"/>
+      <c r="C73" s="16" t="inlineStr">
+        <is>
+          <t>Kolom WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D73" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E73" s="16" t="inlineStr">
+        <is>
+          <t>A36</t>
+        </is>
+      </c>
+      <c r="F73" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G73" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H73" s="16" t="inlineStr"/>
+      <c r="I73" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K73" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L73" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="B74" s="16" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
+      <c r="C74" s="16" t="inlineStr">
+        <is>
+          <t>K4 (550x550)mm</t>
+        </is>
+      </c>
+      <c r="D74" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E74" s="16" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
+      <c r="F74" s="16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G74" s="16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H74" s="16" t="inlineStr"/>
+      <c r="I74" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K74" s="16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L74" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B75" s="16" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
+      </c>
+      <c r="C75" s="16" t="inlineStr">
+        <is>
+          <t>K1 (700x700)mm</t>
+        </is>
+      </c>
+      <c r="D75" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E75" s="16" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
+      </c>
+      <c r="F75" s="16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G75" s="16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H75" s="16" t="inlineStr"/>
+      <c r="I75" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K75" s="16" t="n">
+        <v>3.919999999999999</v>
+      </c>
+      <c r="L75" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="n">
+        <v>71</v>
+      </c>
+      <c r="B76" s="16" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="C76" s="16" t="inlineStr">
+        <is>
+          <t>K2 (650x650)mm</t>
+        </is>
+      </c>
+      <c r="D76" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E76" s="16" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="F76" s="16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G76" s="16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H76" s="16" t="inlineStr"/>
+      <c r="I76" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K76" s="16" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="L76" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="n">
+        <v>72</v>
+      </c>
+      <c r="B77" s="16" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
+      <c r="C77" s="16" t="inlineStr">
+        <is>
+          <t>K3 (600x600)mm</t>
+        </is>
+      </c>
+      <c r="D77" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E77" s="16" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
+      <c r="F77" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G77" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H77" s="16" t="inlineStr"/>
+      <c r="I77" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K77" s="16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L77" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="n">
+        <v>73</v>
+      </c>
+      <c r="B78" s="16" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C78" s="16" t="inlineStr">
+        <is>
+          <t>S1 (300/500)mm</t>
+        </is>
+      </c>
+      <c r="D78" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E78" s="16" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="F78" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" s="16" t="inlineStr"/>
+      <c r="I78" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K78" s="16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L78" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="B79" s="16" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="C79" s="16" t="inlineStr">
+        <is>
+          <t>B25/45</t>
+        </is>
+      </c>
+      <c r="D79" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E79" s="16" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="F79" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G79" s="16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H79" s="16" t="inlineStr"/>
+      <c r="I79" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J79" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K79" s="16" t="n">
+        <v>0.23625</v>
+      </c>
+      <c r="L79" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B80" s="16" t="n"/>
+      <c r="C80" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D80" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E80" s="16" t="inlineStr">
+        <is>
+          <t>A15</t>
+        </is>
+      </c>
+      <c r="F80" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G80" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H80" s="16" t="inlineStr"/>
+      <c r="I80" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K80" s="16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L80" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="B81" s="16" t="n"/>
+      <c r="C81" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D81" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E81" s="16" t="inlineStr">
+        <is>
+          <t>A15</t>
+        </is>
+      </c>
+      <c r="F81" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G81" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H81" s="16" t="inlineStr"/>
+      <c r="I81" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K81" s="16" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L81" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="B82" s="16" t="n"/>
+      <c r="C82" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D82" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E82" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F82" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G82" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H82" s="16" t="inlineStr"/>
+      <c r="I82" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K82" s="16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L82" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="B83" s="16" t="n"/>
+      <c r="C83" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D83" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E83" s="16" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="F83" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G83" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H83" s="16" t="inlineStr"/>
+      <c r="I83" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K83" s="16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L83" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="16" t="n">
+        <v>79</v>
+      </c>
+      <c r="B84" s="16" t="n"/>
+      <c r="C84" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D84" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E84" s="16" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F84" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G84" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H84" s="16" t="inlineStr"/>
+      <c r="I84" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K84" s="16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L84" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="16" t="n">
+        <v>80</v>
+      </c>
+      <c r="B85" s="16" t="n"/>
+      <c r="C85" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D85" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E85" s="16" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="F85" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G85" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H85" s="16" t="inlineStr"/>
+      <c r="I85" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K85" s="16" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L85" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="B86" s="16" t="n"/>
+      <c r="C86" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D86" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E86" s="16" t="inlineStr">
+        <is>
+          <t>D34</t>
+        </is>
+      </c>
+      <c r="F86" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G86" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H86" s="16" t="inlineStr"/>
+      <c r="I86" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K86" s="16" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L86" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="B87" s="16" t="n"/>
+      <c r="C87" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D87" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E87" s="16" t="inlineStr">
+        <is>
+          <t>D34</t>
+        </is>
+      </c>
+      <c r="F87" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G87" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H87" s="16" t="inlineStr"/>
+      <c r="I87" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K87" s="16" t="n">
+        <v>0.05399999999999999</v>
+      </c>
+      <c r="L87" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="n">
+        <v>83</v>
+      </c>
+      <c r="B88" s="16" t="n"/>
+      <c r="C88" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D88" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E88" s="16" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F88" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G88" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H88" s="16" t="inlineStr"/>
+      <c r="I88" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K88" s="16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L88" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="n">
+        <v>84</v>
+      </c>
+      <c r="B89" s="16" t="n"/>
+      <c r="C89" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D89" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E89" s="16" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="F89" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G89" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H89" s="16" t="inlineStr"/>
+      <c r="I89" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K89" s="16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L89" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="16" t="n">
+        <v>85</v>
+      </c>
+      <c r="B90" s="16" t="n"/>
+      <c r="C90" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D90" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E90" s="16" t="inlineStr">
+        <is>
+          <t>D44</t>
+        </is>
+      </c>
+      <c r="F90" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G90" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H90" s="16" t="inlineStr"/>
+      <c r="I90" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K90" s="16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L90" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="n">
+        <v>86</v>
+      </c>
+      <c r="B91" s="16" t="n"/>
+      <c r="C91" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 300x200x56,8</t>
+        </is>
+      </c>
+      <c r="D91" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E91" s="16" t="inlineStr">
+        <is>
+          <t>D44</t>
+        </is>
+      </c>
+      <c r="F91" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G91" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H91" s="16" t="inlineStr"/>
+      <c r="I91" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K91" s="16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L91" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="B92" s="16" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C92" s="16" t="inlineStr">
+        <is>
+          <t>S1 (450/700)mm</t>
+        </is>
+      </c>
+      <c r="D92" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E92" s="16" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="F92" s="16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G92" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H92" s="16" t="inlineStr"/>
+      <c r="I92" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K92" s="16" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L92" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="16" t="n">
+        <v>88</v>
+      </c>
+      <c r="B93" s="16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C93" s="16" t="inlineStr">
+        <is>
+          <t>S2* (400/600)mm</t>
+        </is>
+      </c>
+      <c r="D93" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E93" s="16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F93" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" s="16" t="inlineStr"/>
+      <c r="I93" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K93" s="16" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L93" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="B94" s="16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C94" s="16" t="inlineStr">
+        <is>
+          <t>S2 (400/600)mm</t>
+        </is>
+      </c>
+      <c r="D94" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E94" s="16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F94" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" s="16" t="inlineStr"/>
+      <c r="I94" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K94" s="16" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L94" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="n">
+        <v>90</v>
+      </c>
+      <c r="B95" s="16" t="n"/>
+      <c r="C95" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D95" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E95" s="16" t="inlineStr">
+        <is>
+          <t>A32</t>
+        </is>
+      </c>
+      <c r="F95" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G95" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H95" s="16" t="inlineStr"/>
+      <c r="I95" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K95" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L95" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="B96" s="16" t="n"/>
+      <c r="C96" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D96" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E96" s="16" t="inlineStr">
+        <is>
+          <t>A32</t>
+        </is>
+      </c>
+      <c r="F96" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G96" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H96" s="16" t="inlineStr"/>
+      <c r="I96" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K96" s="16" t="n">
+        <v>0.009375</v>
+      </c>
+      <c r="L96" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="n">
+        <v>92</v>
+      </c>
+      <c r="B97" s="16" t="n"/>
+      <c r="C97" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D97" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E97" s="16" t="inlineStr">
+        <is>
+          <t>A34</t>
+        </is>
+      </c>
+      <c r="F97" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G97" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H97" s="16" t="inlineStr"/>
+      <c r="I97" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K97" s="16" t="n">
+        <v>0.009375</v>
+      </c>
+      <c r="L97" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="B98" s="16" t="n"/>
+      <c r="C98" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D98" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E98" s="16" t="inlineStr">
+        <is>
+          <t>A34</t>
+        </is>
+      </c>
+      <c r="F98" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G98" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H98" s="16" t="inlineStr"/>
+      <c r="I98" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K98" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L98" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="16" t="n">
+        <v>94</v>
+      </c>
+      <c r="B99" s="16" t="n"/>
+      <c r="C99" s="16" t="inlineStr">
+        <is>
+          <t>Balok, WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D99" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E99" s="16" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="F99" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G99" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H99" s="16" t="inlineStr"/>
+      <c r="I99" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K99" s="16" t="n">
+        <v>0.009375</v>
+      </c>
+      <c r="L99" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="16" t="n">
+        <v>95</v>
+      </c>
+      <c r="B100" s="16" t="n"/>
+      <c r="C100" s="16" t="inlineStr">
+        <is>
+          <t>Kolom, WF 250x125x25,7</t>
+        </is>
+      </c>
+      <c r="D100" s="16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E100" s="16" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="F100" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G100" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H100" s="16" t="inlineStr"/>
+      <c r="I100" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" s="16" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="K100" s="16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L100" s="16" t="inlineStr">
+        <is>
+          <t>Auto: text_extraction</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/volumes/Volume_dari_Gambar_AUTO.xlsx
+++ b/output/volumes/Volume_dari_Gambar_AUTO.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19-01-2026</t>
+          <t>20-01-2026</t>
         </is>
       </c>
     </row>
